--- a/data/trans_dic/P64D$particular_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7456439290095926</v>
+        <v>0.7456439290095924</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.408614215688017</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6467432345414098</v>
+        <v>0.6466069804424036</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3195918119736995</v>
+        <v>0.3193928870010032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5607909048971642</v>
+        <v>0.5602749685565364</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8197618791038767</v>
+        <v>0.824426813403726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5007822781620818</v>
+        <v>0.5135415127702434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6916463024639791</v>
+        <v>0.687087711900307</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.7566912133497066</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.602078745219185</v>
+        <v>0.6020787452191851</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6909493119559269</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7278411661325273</v>
+        <v>0.7277244109059763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5733653316178815</v>
+        <v>0.5731214510997189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6704295341542004</v>
+        <v>0.6694928165988681</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7831412781796727</v>
+        <v>0.782471672046728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6330430285624928</v>
+        <v>0.6338190524820085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7112570370898929</v>
+        <v>0.710917122077495</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6673435274182788</v>
+        <v>0.6673435274182787</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6670678325595765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6672063469950497</v>
+        <v>0.6672063469950495</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6191323162474057</v>
+        <v>0.61371784032327</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6293503097143193</v>
+        <v>0.6257496567389628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6367763088767802</v>
+        <v>0.6368814154069863</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7177368514871215</v>
+        <v>0.7108524090500143</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7033745323949987</v>
+        <v>0.7048970426806158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6986678302702801</v>
+        <v>0.6987034948345383</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7101468407104995</v>
+        <v>0.7108538972365795</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5869374457913907</v>
+        <v>0.5867729898106322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6640190852688791</v>
+        <v>0.6618528301735854</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7564539394862198</v>
+        <v>0.7582300372653135</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6337083744820423</v>
+        <v>0.634383246600743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6965594308377414</v>
+        <v>0.6950016527163136</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>104214</v>
+        <v>104192</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26860</v>
+        <v>26844</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>137495</v>
+        <v>137369</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>132093</v>
+        <v>132845</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42089</v>
+        <v>43161</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169579</v>
+        <v>168461</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>918201</v>
+        <v>918053</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>535078</v>
+        <v>534850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1471434</v>
+        <v>1469378</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>987964</v>
+        <v>987119</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>590770</v>
+        <v>591495</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1561041</v>
+        <v>1560295</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>296170</v>
+        <v>293580</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>298158</v>
+        <v>296453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>606286</v>
+        <v>606386</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343339</v>
+        <v>340045</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>333228</v>
+        <v>333949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>665214</v>
+        <v>665248</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1350016</v>
+        <v>1351360</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>875138</v>
+        <v>874893</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2252395</v>
+        <v>2245046</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1438048</v>
+        <v>1441424</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>944874</v>
+        <v>945881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2362773</v>
+        <v>2357489</v>
       </c>
     </row>
     <row r="20">
